--- a/Data/Metadata/Metatable.xlsx
+++ b/Data/Metadata/Metatable.xlsx
@@ -5,16 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1aria\Documents\MTLS\6 - Thesis\04_Analysis\Raw_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1aria\Desktop\rep\Data\Metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3896310-279F-4CE9-9620-74E41FACA2B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFF48D2B-E869-423A-8EA1-0AFCFD90CF56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SCR" sheetId="1" r:id="rId1"/>
-    <sheet name="w nur" sheetId="2" r:id="rId2"/>
+    <sheet name="Cycles" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -448,7 +449,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -460,19 +461,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -493,13 +488,13 @@
       <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -559,23 +554,23 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{08006330-5862-4295-9CC5-1362582C4843}" name="Table13" displayName="Table13" ref="A1:K49" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{08006330-5862-4295-9CC5-1362582C4843}" name="Table13" displayName="Table13" ref="A1:K49" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A1:K49" xr:uid="{08006330-5862-4295-9CC5-1362582C4843}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K49">
     <sortCondition ref="I1:I49"/>
   </sortState>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{B00E1573-C2FF-4FE4-8686-67DBFE1AA6B9}" name="Sample_name" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{BBE9BAD4-D7CB-4D9F-8384-02E9F6D176D2}" name="Sample_nr" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{A5C77A4F-5C3A-4452-A76A-5819760DC139}" name="Sample_status" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{87C4C199-A862-47C1-A907-3DCC2F94D151}" name="Cycle" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{69CE95EB-803F-41CA-BC6E-144A71937DCF}" name="TMT_label" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{9C043624-2E81-4F13-88E1-C140CD83BF67}" name="Set_nr" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{8DEF91B2-87DE-47D4-97B8-119B7CB98574}" name="Replicate" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{C203044A-8724-459D-925E-77C480AE169B}" name="Age" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{A6B9DF26-2964-4073-AACC-59E4097E59AD}" name="Sex" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{E38A94C4-BD19-4031-9BB9-F05B9AEAE6A6}" name="TMB" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{DF672C3B-4031-424B-9FEE-F5167A889411}" name="Cancer" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{B00E1573-C2FF-4FE4-8686-67DBFE1AA6B9}" name="Sample_name" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{BBE9BAD4-D7CB-4D9F-8384-02E9F6D176D2}" name="Sample_nr" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{A5C77A4F-5C3A-4452-A76A-5819760DC139}" name="Sample_status" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{87C4C199-A862-47C1-A907-3DCC2F94D151}" name="Cycle" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{69CE95EB-803F-41CA-BC6E-144A71937DCF}" name="TMT_label" dataDxfId="6"/>
+    <tableColumn id="6" xr3:uid="{9C043624-2E81-4F13-88E1-C140CD83BF67}" name="Set_nr" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{8DEF91B2-87DE-47D4-97B8-119B7CB98574}" name="Replicate" dataDxfId="4"/>
+    <tableColumn id="8" xr3:uid="{C203044A-8724-459D-925E-77C480AE169B}" name="Age" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{A6B9DF26-2964-4073-AACC-59E4097E59AD}" name="Sex" dataDxfId="2"/>
+    <tableColumn id="10" xr3:uid="{E38A94C4-BD19-4031-9BB9-F05B9AEAE6A6}" name="TMB" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{DF672C3B-4031-424B-9FEE-F5167A889411}" name="Cancer" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -846,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection sqref="A1:XFD49"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A54" sqref="A54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2374,7 +2369,7 @@
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I40" sqref="I40"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2451,7 +2446,7 @@
       <c r="J2" s="3">
         <v>19</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="4" t="s">
         <v>86</v>
       </c>
     </row>
@@ -2483,7 +2478,7 @@
       <c r="J3" s="3">
         <v>24</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="K3" s="3" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2515,7 +2510,7 @@
       <c r="J4" s="3">
         <v>8.8000000000000007</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="4" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3004,7 +2999,7 @@
       <c r="J19" s="3">
         <v>18.899999999999999</v>
       </c>
-      <c r="K19" s="8" t="s">
+      <c r="K19" s="3" t="s">
         <v>84</v>
       </c>
     </row>
@@ -3036,7 +3031,7 @@
       <c r="J20" s="3">
         <v>8.8000000000000007</v>
       </c>
-      <c r="K20" s="8" t="s">
+      <c r="K20" s="3" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3493,7 +3488,7 @@
       <c r="J34" s="3">
         <v>24</v>
       </c>
-      <c r="K34" s="9" t="s">
+      <c r="K34" s="4" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3788,7 +3783,6 @@
       <c r="F45" s="3">
         <v>3</v>
       </c>
-      <c r="K45" s="8"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
@@ -3809,7 +3803,6 @@
       <c r="F46" s="3">
         <v>3</v>
       </c>
-      <c r="K46" s="8"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
@@ -3824,7 +3817,6 @@
       <c r="F47" s="3">
         <v>2</v>
       </c>
-      <c r="K47" s="8"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
@@ -3839,7 +3831,6 @@
       <c r="F48" s="3">
         <v>1</v>
       </c>
-      <c r="K48" s="8"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
@@ -3862,4 +3853,16 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFC1369E-8C22-441A-A29C-643A5EF92028}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>